--- a/References/excel/資料庫表格_final.xlsx
+++ b/References/excel/資料庫表格_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Artists_treasure\References\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA8586A-7021-4CF4-9AC8-AE4E83292EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C289B374-A590-49FE-AF58-D4FB8A0333CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
   </bookViews>
   <sheets>
     <sheet name="創作品資料表(ARTWORK)" sheetId="3" r:id="rId1"/>
@@ -1537,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1F1047-158D-496F-8432-5EE22D9F1B80}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3114,7 +3114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116F66E-B285-4978-8D07-6049E982F6A1}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/References/excel/資料庫表格_final.xlsx
+++ b/References/excel/資料庫表格_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Artists_treasure\References\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C289B374-A590-49FE-AF58-D4FB8A0333CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50093E53-B8B2-4F57-9BEF-2F54BC3A63D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
   </bookViews>
   <sheets>
     <sheet name="創作品資料表(ARTWORK)" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="223">
   <si>
     <t>欄位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -947,6 +947,14 @@
   </si>
   <si>
     <t>後處理，長寬合併</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用END窮舉算數量，IF AK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END更新後新增次數，刪除要減少 JS?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1537,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1F1047-158D-496F-8432-5EE22D9F1B80}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1550,7 +1558,7 @@
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.6640625" customWidth="1"/>
     <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1810,6 +1818,9 @@
       <c r="H11" s="21" t="s">
         <v>154</v>
       </c>
+      <c r="I11" s="4" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
@@ -1831,6 +1842,9 @@
       </c>
       <c r="H12" s="21" t="s">
         <v>154</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1937,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C8E95C-CD2E-43EE-A649-8817C47B6C27}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/References/excel/資料庫表格_final.xlsx
+++ b/References/excel/資料庫表格_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Artists_treasure\References\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50093E53-B8B2-4F57-9BEF-2F54BC3A63D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB6E4A8-3219-425C-9CC7-71A111C576CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="11" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
   </bookViews>
   <sheets>
     <sheet name="創作品資料表(ARTWORK)" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="223">
   <si>
     <t>欄位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,10 +650,6 @@
   </si>
   <si>
     <t>CT_START</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT_END</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -955,6 +951,10 @@
   </si>
   <si>
     <t>END更新後新增次數，刪除要減少 JS?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT_FINISH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1595,7 +1595,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1631,10 +1631,10 @@
         <v>54</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1689,7 +1689,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -1702,10 +1702,10 @@
         <v>53</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="13" customFormat="1">
@@ -1716,7 +1716,7 @@
         <v>89</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>15</v>
@@ -1726,10 +1726,10 @@
         <v>10594</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="13" customFormat="1">
@@ -1740,7 +1740,7 @@
         <v>90</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -1750,21 +1750,21 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -1772,10 +1772,10 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1799,10 +1799,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1813,21 +1813,21 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1838,13 +1838,13 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1855,7 +1855,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>15</v>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="31.2">
@@ -1907,13 +1907,13 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1937,7 +1937,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C8E95C-CD2E-43EE-A649-8817C47B6C27}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2001,7 +2001,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2033,7 +2033,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.2">
@@ -2053,7 +2053,7 @@
         <v>28</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2">
@@ -2073,7 +2073,7 @@
         <v>64</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2">
@@ -2096,7 +2096,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2">
@@ -2119,7 +2119,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2185,7 +2185,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2233,7 +2233,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2256,7 +2256,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2280,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>16</v>
@@ -2292,7 +2292,7 @@
         <v>86</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2303,7 +2303,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -2312,7 +2312,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="21"/>
@@ -2350,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C94E7FE-67E1-48DD-A82A-F4B294148CC7}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2399,7 +2399,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2431,7 +2431,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2450,7 +2450,9 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="21"/>
+      <c r="H4" s="21" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
@@ -2470,7 +2472,9 @@
         <v>33</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="21" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
@@ -2493,12 +2497,12 @@
         <v>54</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>62</v>
@@ -2517,7 +2521,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2589,7 +2593,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2631,13 +2635,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2660,7 +2664,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -2681,7 +2685,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
@@ -2713,7 +2717,7 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2727,7 +2731,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="8">
@@ -2735,12 +2739,12 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>69</v>
@@ -2749,7 +2753,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="8">
@@ -2812,13 +2816,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2827,7 +2831,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>51</v>
@@ -2835,10 +2839,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
@@ -2847,12 +2851,12 @@
         <v>15</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>61</v>
@@ -2864,12 +2868,12 @@
         <v>15</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>62</v>
@@ -2881,12 +2885,12 @@
         <v>15</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>68</v>
@@ -2898,13 +2902,13 @@
         <v>15</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>99</v>
@@ -2918,7 +2922,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>43</v>
@@ -2987,13 +2991,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -3002,7 +3006,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>51</v>
@@ -3010,13 +3014,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -3025,10 +3029,10 @@
         <v>24</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3039,7 +3043,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -3051,7 +3055,7 @@
         <v>86</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3062,7 +3066,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -3071,17 +3075,17 @@
         <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -3107,7 +3111,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -3178,7 +3182,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -3187,7 +3191,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>51</v>
@@ -3213,7 +3217,7 @@
         <v>54</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.2">
@@ -3233,7 +3237,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2">
@@ -3253,7 +3257,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2">
@@ -3273,7 +3277,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2">
@@ -3284,7 +3288,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -3296,7 +3300,7 @@
         <v>53</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" ht="16.2">
@@ -3307,7 +3311,7 @@
         <v>89</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -3320,7 +3324,7 @@
         <v>92</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" ht="16.2">
@@ -3331,7 +3335,7 @@
         <v>90</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -3344,18 +3348,18 @@
         <v>91</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="16.2">
       <c r="A10" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -3365,10 +3369,10 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" ht="16.2">
@@ -3392,12 +3396,12 @@
         <v>54</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>29</v>
@@ -3434,10 +3438,10 @@
     </row>
     <row r="14" spans="1:8" customFormat="1" ht="16.2">
       <c r="A14" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -3448,10 +3452,10 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.2">
@@ -3474,7 +3478,7 @@
         <v>39</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="31.2">
@@ -3517,7 +3521,7 @@
         <v>55</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3588,13 +3592,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -3611,13 +3615,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -3677,13 +3681,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -3692,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>51</v>
@@ -3700,13 +3704,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -3722,8 +3726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A364A2B7-A0F3-4F09-8D31-79A411466D1A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -3766,13 +3770,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>15</v>
@@ -3789,7 +3793,7 @@
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1">
       <c r="A3" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
@@ -3809,7 +3813,7 @@
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1">
       <c r="A4" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>74</v>
@@ -3829,7 +3833,7 @@
     </row>
     <row r="5" spans="1:8" ht="16.2">
       <c r="A5" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>75</v>
@@ -3844,12 +3848,12 @@
         <v>28</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2">
       <c r="A6" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>96</v>
@@ -3867,12 +3871,12 @@
         <v>54</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2">
       <c r="A7" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>50</v>
@@ -3884,12 +3888,12 @@
         <v>15</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2">
       <c r="A8" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>72</v>
@@ -3901,12 +3905,12 @@
         <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>48</v>
@@ -3923,7 +3927,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>49</v>
@@ -3943,7 +3947,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>43</v>
@@ -3963,7 +3967,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -3988,7 +3992,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -4030,13 +4034,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="15.6">
       <c r="A2" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>15</v>
@@ -4053,7 +4057,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>76</v>
@@ -4072,7 +4076,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4095,7 +4099,7 @@
         <v>86</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" s="21"/>
     </row>
@@ -4123,7 +4127,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>57</v>
@@ -4144,7 +4148,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>43</v>
@@ -4163,12 +4167,12 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
